--- a/src/main/java/testing/excel/hw1_result.xlsx
+++ b/src/main/java/testing/excel/hw1_result.xlsx
@@ -108,12 +108,12 @@
           <t>b</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -126,10 +126,10 @@
       <c r="B2" t="n">
         <v>21.0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>22.0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>非等腰锐角三角形</t>
         </is>
@@ -142,10 +142,10 @@
       <c r="B3" t="n">
         <v>19.0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>33.0</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>非等腰钝角三角形</t>
         </is>
@@ -158,10 +158,10 @@
       <c r="B4" t="n">
         <v>12.0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>12.0</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>等腰钝角三角形</t>
         </is>
@@ -174,10 +174,10 @@
       <c r="B5" t="n">
         <v>15.0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>29.0</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>等腰钝角三角形</t>
         </is>
@@ -190,10 +190,10 @@
       <c r="B6" t="n">
         <v>4.0</v>
       </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>5.0</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>直角三角形</t>
         </is>
@@ -206,10 +206,10 @@
       <c r="B7" t="n">
         <v>4.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E7"/>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -218,10 +218,10 @@
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E8"/>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -230,10 +230,10 @@
       <c r="B9" t="n">
         <v>1.0</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E9"/>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -242,10 +242,10 @@
       <c r="B10" t="n">
         <v>11.0</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E10"/>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -254,10 +254,10 @@
       <c r="B11" t="n">
         <v>10.0</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E11"/>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -266,10 +266,10 @@
       <c r="B12" t="n">
         <v>4.0</v>
       </c>
-      <c r="D12" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -282,10 +282,10 @@
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
-      <c r="D13" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E13"/>
+      <c r="C13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -294,10 +294,10 @@
       <c r="B14" t="n">
         <v>1.0</v>
       </c>
-      <c r="D14" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -310,10 +310,10 @@
       <c r="B15" t="n">
         <v>11.0</v>
       </c>
-      <c r="D15" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -326,10 +326,10 @@
       <c r="B16" t="n">
         <v>10.0</v>
       </c>
-      <c r="D16" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -342,10 +342,10 @@
       <c r="B17" t="n">
         <v>4.0</v>
       </c>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>44640.0</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -358,10 +358,10 @@
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
-      <c r="D18" t="n">
+      <c r="C18" t="n">
         <v>44640.0</v>
       </c>
-      <c r="E18"/>
+      <c r="D18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -370,10 +370,10 @@
       <c r="B19" t="n">
         <v>1.0</v>
       </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>44640.0</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -386,10 +386,10 @@
       <c r="B20" t="n">
         <v>11.0</v>
       </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>44640.0</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -402,10 +402,10 @@
       <c r="B21" t="n">
         <v>10.0</v>
       </c>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>44640.0</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -418,10 +418,10 @@
       <c r="B22" t="n">
         <v>4.0</v>
       </c>
-      <c r="D22" t="n">
+      <c r="C22" t="n">
         <v>44000.0</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -434,10 +434,10 @@
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
-      <c r="D23" t="n">
+      <c r="C23" t="n">
         <v>44000.0</v>
       </c>
-      <c r="E23"/>
+      <c r="D23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -446,10 +446,10 @@
       <c r="B24" t="n">
         <v>1.0</v>
       </c>
-      <c r="D24" t="n">
+      <c r="C24" t="n">
         <v>44000.0</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -462,10 +462,10 @@
       <c r="B25" t="n">
         <v>11.0</v>
       </c>
-      <c r="D25" t="n">
+      <c r="C25" t="n">
         <v>44000.0</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -478,10 +478,10 @@
       <c r="B26" t="n">
         <v>10.0</v>
       </c>
-      <c r="D26" t="n">
+      <c r="C26" t="n">
         <v>44000.0</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -511,12 +511,12 @@
           <t>b</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -529,10 +529,10 @@
       <c r="B2" t="n">
         <v>21.0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>22.0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>非等腰锐角三角形</t>
         </is>
@@ -545,10 +545,10 @@
       <c r="B3" t="n">
         <v>19.0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>33.0</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>非等腰钝角三角形</t>
         </is>
@@ -561,10 +561,10 @@
       <c r="B4" t="n">
         <v>12.0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>12.0</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>等腰钝角三角形</t>
         </is>
@@ -577,10 +577,10 @@
       <c r="B5" t="n">
         <v>15.0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>29.0</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>等腰钝角三角形</t>
         </is>
@@ -593,10 +593,10 @@
       <c r="B6" t="n">
         <v>4.0</v>
       </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>5.0</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>直角三角形</t>
         </is>
@@ -609,10 +609,10 @@
       <c r="B7" t="n">
         <v>1.0</v>
       </c>
-      <c r="D7" t="n">
+      <c r="C7" t="n">
         <v>500000.0</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -625,10 +625,10 @@
       <c r="B8" t="n">
         <v>2.0</v>
       </c>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>500000.0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -641,10 +641,10 @@
       <c r="B9" t="n">
         <v>3.0</v>
       </c>
-      <c r="D9" t="n">
+      <c r="C9" t="n">
         <v>500000.0</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -657,10 +657,10 @@
       <c r="B10" t="n">
         <v>5.0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>500000.0</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -673,10 +673,10 @@
       <c r="B11" t="n">
         <v>8.0</v>
       </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>500000.0</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -689,10 +689,10 @@
       <c r="B12" t="n">
         <v>-3.0</v>
       </c>
-      <c r="D12" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E12"/>
+      <c r="C12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -701,10 +701,10 @@
       <c r="B13" t="n">
         <v>-3.0</v>
       </c>
-      <c r="D13" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E13"/>
+      <c r="C13" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -713,10 +713,10 @@
       <c r="B14" t="n">
         <v>-3.0</v>
       </c>
-      <c r="D14" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="E14"/>
+      <c r="C14" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -725,10 +725,10 @@
       <c r="B15" t="n">
         <v>-3.0</v>
       </c>
-      <c r="D15" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E15"/>
+      <c r="C15" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -737,10 +737,10 @@
       <c r="B16" t="n">
         <v>-3.0</v>
       </c>
-      <c r="D16" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E16"/>
+      <c r="C16" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -749,10 +749,10 @@
       <c r="B17" t="n">
         <v>12.0</v>
       </c>
-      <c r="D17" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -765,10 +765,10 @@
       <c r="B18" t="n">
         <v>14.0</v>
       </c>
-      <c r="D18" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -781,10 +781,10 @@
       <c r="B19" t="n">
         <v>15.0</v>
       </c>
-      <c r="D19" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -797,10 +797,10 @@
       <c r="B20" t="n">
         <v>12.0</v>
       </c>
-      <c r="D20" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -813,10 +813,10 @@
       <c r="B21" t="n">
         <v>12.0</v>
       </c>
-      <c r="D21" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -829,10 +829,10 @@
       <c r="B22" t="n">
         <v>1.0</v>
       </c>
-      <c r="D22" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -845,10 +845,10 @@
       <c r="B23" t="n">
         <v>1.0</v>
       </c>
-      <c r="D23" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -861,10 +861,10 @@
       <c r="B24" t="n">
         <v>1.0</v>
       </c>
-      <c r="D24" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -877,10 +877,10 @@
       <c r="B25" t="n">
         <v>1.0</v>
       </c>
-      <c r="D25" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -893,10 +893,10 @@
       <c r="B26" t="n">
         <v>1.0</v>
       </c>
-      <c r="D26" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -909,10 +909,10 @@
       <c r="B27" t="n">
         <v>2.0</v>
       </c>
-      <c r="D27" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -925,10 +925,10 @@
       <c r="B28" t="n">
         <v>2.0</v>
       </c>
-      <c r="D28" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -941,10 +941,10 @@
       <c r="B29" t="n">
         <v>2.0</v>
       </c>
-      <c r="D29" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -957,10 +957,10 @@
       <c r="B30" t="n">
         <v>2.0</v>
       </c>
-      <c r="D30" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -973,10 +973,10 @@
       <c r="B31" t="n">
         <v>2.0</v>
       </c>
-      <c r="D31" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -989,10 +989,10 @@
       <c r="B32" t="n">
         <v>3.0</v>
       </c>
-      <c r="D32" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1005,10 +1005,10 @@
       <c r="B33" t="n">
         <v>3.0</v>
       </c>
-      <c r="D33" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1021,10 +1021,10 @@
       <c r="B34" t="n">
         <v>3.0</v>
       </c>
-      <c r="D34" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1037,10 +1037,10 @@
       <c r="B35" t="n">
         <v>3.0</v>
       </c>
-      <c r="D35" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1053,10 +1053,10 @@
       <c r="B36" t="n">
         <v>3.0</v>
       </c>
-      <c r="D36" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1069,10 +1069,10 @@
       <c r="B37" t="n">
         <v>4.0</v>
       </c>
-      <c r="D37" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1085,10 +1085,10 @@
       <c r="B38" t="n">
         <v>5.0</v>
       </c>
-      <c r="D38" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1101,10 +1101,10 @@
       <c r="B39" t="n">
         <v>6.0</v>
       </c>
-      <c r="D39" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1117,10 +1117,10 @@
       <c r="B40" t="n">
         <v>5.0</v>
       </c>
-      <c r="D40" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1133,10 +1133,10 @@
       <c r="B41" t="n">
         <v>6.0</v>
       </c>
-      <c r="D41" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1149,10 +1149,10 @@
       <c r="B42" t="n">
         <v>7.0</v>
       </c>
-      <c r="D42" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1165,10 +1165,10 @@
       <c r="B43" t="n">
         <v>8.0</v>
       </c>
-      <c r="D43" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1181,10 +1181,10 @@
       <c r="B44" t="n">
         <v>9.0</v>
       </c>
-      <c r="D44" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1197,10 +1197,10 @@
       <c r="B45" t="n">
         <v>8.0</v>
       </c>
-      <c r="D45" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>
@@ -1213,10 +1213,10 @@
       <c r="B46" t="n">
         <v>9.0</v>
       </c>
-      <c r="D46" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>等腰锐角三角形</t>
         </is>

--- a/src/main/java/testing/excel/hw1_result.xlsx
+++ b/src/main/java/testing/excel/hw1_result.xlsx
@@ -173,11 +173,11 @@
         <v>5.0</v>
       </c>
       <c r="C4" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>非三角形</t>
+          <t>不构成三角形</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -219,7 +219,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>非三角形</t>
+          <t>不构成三角形</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -261,7 +261,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>非三角形</t>
+          <t>不构成三角形</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
